--- a/biology/Médecine/Maladie_de_Sanfilippo/Maladie_de_Sanfilippo.xlsx
+++ b/biology/Médecine/Maladie_de_Sanfilippo/Maladie_de_Sanfilippo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La maladie de Sanfilippo ou syndrome de Sanfilippo est une mucopolysaccharidose, et donc classée en tant que maladie lysosomale.
-Il s'agit d'une maladie neurologique rare et incurable[1], liée à une mutation génétique. Les premières manifestations dans la petite enfance se présentent sous la forme d'un retard dans les acquisitions cognitives qui peuvent, au premier abord, évoquer l'autisme ainsi qu'une hyperactivité. Cependant, l'enfant, bien avant son adolescence, évolue rapidement vers une régression de plus en plus sévère des acquis psychomoteurs entraînant un polyhandicap nécessitant une prise en charge constante. La maladie entraîne une mort prématurée au début de l’âge adulte[2].
+Il s'agit d'une maladie neurologique rare et incurable, liée à une mutation génétique. Les premières manifestations dans la petite enfance se présentent sous la forme d'un retard dans les acquisitions cognitives qui peuvent, au premier abord, évoquer l'autisme ainsi qu'une hyperactivité. Cependant, l'enfant, bien avant son adolescence, évolue rapidement vers une régression de plus en plus sévère des acquis psychomoteurs entraînant un polyhandicap nécessitant une prise en charge constante. La maladie entraîne une mort prématurée au début de l’âge adulte.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mucopolysaccharidose de type III (MPS III)
 Déficit en héparane sulfamidase (héparane-N-sulfatase) dans la maladie de Sanfilippo A - MPS III A
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce syndrome est dû à une déficience en une enzyme lysosomiale dénommée héparane-N-sulfatase. Cette enzyme réalise une étape cruciale du catabolisme du sulfate d'héparane, un glycosaminoglycane que l'on trouve dans la matrice extracellulaire et dans les glycoprotéines de la surface cellulaire. Bien que le sulfate d'héparane soit le substrat stocké en premier lieu, des glycolipides comme des gangliosides sont également stockés bien qu'il n'y ait aucun déficit génétique des enzymes associées à leur catabolisme.
 Elle se traduit par une dégénérescence nerveuse très importante aboutissant à un état grabataire vers l'âge de 10 à 15 ans et un décès survenant le plus souvent entre 10 et 20 ans, bien qu'il y ait quelques exceptions dû à des types de mutations génétiques plus légères.
@@ -587,11 +603,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MPS 3A
-Mutation du gène SGSH (en) 605270 situé sur le chromosome 17 codant la N-sulfoglucosamine sulfohydrolase.
-MPS 3B
-MPS 3C
-MPS 3D</t>
+          <t>MPS 3A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mutation du gène SGSH (en) 605270 situé sur le chromosome 17 codant la N-sulfoglucosamine sulfohydrolase.
+</t>
         </is>
       </c>
     </row>
@@ -621,8 +640,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Découverte
-Cette maladie a été découverte par le docteur Sylvester Sanfilippo (en) (1926 - 2013), pédiatre américain à Edina, ville du Minnesota, aux États-Unis. Celui-ci en a décrit les caractéristiques en 1963[3]. Il prend sa retraite en juin 1988[4].
+          <t>Découverte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette maladie a été découverte par le docteur Sylvester Sanfilippo (en) (1926 - 2013), pédiatre américain à Edina, ville du Minnesota, aux États-Unis. Celui-ci en a décrit les caractéristiques en 1963. Il prend sa retraite en juin 1988.
 </t>
         </is>
       </c>
@@ -651,7 +675,9 @@
           <t>Historique naturel et diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'enfant ne présente aucune anomalie à la naissance dans la grande majorité des cas et le développement est normal jusqu'à 3 à 4 ans, âge auquel la maladie est généralement diagnostiquée par le pédiatre ou le neurologue.
 Cependant, quelques symptômes annonciateurs apparaissent avant même l'âge de trois ans, soit :
@@ -705,12 +731,14 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2011, Lysogene (une société de biopharmaceutique créée par Karen Aiach[5],[6]) a commencé un essai clinique de thérapie génique intracérébrale[7] pour traiter le syndrome de Sanfilippo de type A.
-En octobre 2013, l'Institut Pasteur, conjointement avec l'AFM et l'association VML[8], a commencé un essai clinique pour le traitement de la MPS IIIB[9].
-Des essais cliniques pour les autres formes de maladie de Sanfilippo (type B, C, D) sont programmés et portés par d'autres laboratoires et groupe de recherche[10].
-Dans l'attente de la validation de ces traitements, seul un traitement symptomatique peut être proposé aux patients[11].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2011, Lysogene (une société de biopharmaceutique créée par Karen Aiach,) a commencé un essai clinique de thérapie génique intracérébrale pour traiter le syndrome de Sanfilippo de type A.
+En octobre 2013, l'Institut Pasteur, conjointement avec l'AFM et l'association VML, a commencé un essai clinique pour le traitement de la MPS IIIB.
+Des essais cliniques pour les autres formes de maladie de Sanfilippo (type B, C, D) sont programmés et portés par d'autres laboratoires et groupe de recherche.
+Dans l'attente de la validation de ces traitements, seul un traitement symptomatique peut être proposé aux patients.
 </t>
         </is>
       </c>
@@ -741,10 +769,50 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mode de transmission
-Transmission autosomique récessive, les deux parents sont porteurs sains d'une mutation. Pour que l'enfant soit atteint, il faut que chacun des parents transmette la mutation : le risque est de 1 sur 4 à chaque naissance.
-Diagnostic anténatal
-Mise en évidence de l'activité déficitaire enzymatique par culture de trophoblaste ou au niveau des cellules amniotiques.
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Transmission autosomique récessive, les deux parents sont porteurs sains d'une mutation. Pour que l'enfant soit atteint, il faut que chacun des parents transmette la mutation : le risque est de 1 sur 4 à chaque naissance.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maladie_de_Sanfilippo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maladie_de_Sanfilippo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Diagnostic anténatal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mise en évidence de l'activité déficitaire enzymatique par culture de trophoblaste ou au niveau des cellules amniotiques.
 Dépistage de la mutation si celle-ci est connue chez les parents.</t>
         </is>
       </c>
